--- a/node/output.xlsx
+++ b/node/output.xlsx
@@ -22,7 +22,7 @@
     <t>34.78%</t>
   </si>
   <si>
-    <t>99.48%</t>
+    <t>99.35%</t>
   </si>
   <si>
     <t>软叶刺葵</t>
@@ -40,1275 +40,1281 @@
     <t>43.48%</t>
   </si>
   <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>九里香</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
+    <t>含笑</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>MZ1q</t>
+  </si>
+  <si>
+    <t>侧柏</t>
+  </si>
+  <si>
+    <t>32.00%</t>
+  </si>
+  <si>
+    <t>15.42%</t>
+  </si>
+  <si>
+    <t>朴树</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
+    <t>0.60%</t>
+  </si>
+  <si>
+    <t>假连翘</t>
+  </si>
+  <si>
+    <t>24.00%</t>
+  </si>
+  <si>
+    <t>3.18%</t>
+  </si>
+  <si>
+    <t>龙柏</t>
+  </si>
+  <si>
+    <t>36.00%</t>
+  </si>
+  <si>
+    <t>80.20%</t>
+  </si>
+  <si>
+    <t>盐肤木</t>
+  </si>
+  <si>
+    <t>HGH1q</t>
+  </si>
+  <si>
+    <t>菩提树</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>43.52%</t>
+  </si>
+  <si>
+    <t>鸡爪槭</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>秋枫</t>
+  </si>
+  <si>
+    <t>57.14%</t>
+  </si>
+  <si>
+    <t>55.90%</t>
+  </si>
+  <si>
+    <t>HGH2q</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>11.12%</t>
+  </si>
+  <si>
+    <t>黄金串钱柳</t>
+  </si>
+  <si>
+    <t>2.30%</t>
+  </si>
+  <si>
+    <t>0.78%</t>
+  </si>
+  <si>
+    <t>樱花</t>
+  </si>
+  <si>
+    <t>13.79%</t>
+  </si>
+  <si>
+    <t>3.14%</t>
+  </si>
+  <si>
+    <t>澳洲鸭脚木</t>
+  </si>
+  <si>
+    <t>4.60%</t>
+  </si>
+  <si>
+    <t>2.77%</t>
+  </si>
+  <si>
+    <t>鸡冠刺桐</t>
+  </si>
+  <si>
+    <t>9.20%</t>
+  </si>
+  <si>
+    <t>45.10%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
+    <t>26.90%</t>
+  </si>
+  <si>
+    <t>菜豆树</t>
+  </si>
+  <si>
+    <t>65.52%</t>
+  </si>
+  <si>
+    <t>10.19%</t>
+  </si>
+  <si>
+    <t>HGH3q</t>
+  </si>
+  <si>
+    <t>榕树</t>
+  </si>
+  <si>
+    <t>9.52%</t>
+  </si>
+  <si>
+    <t>69.35%</t>
+  </si>
+  <si>
+    <t>杨梅</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
+    <t>0.68%</t>
+  </si>
+  <si>
+    <t>天料木</t>
+  </si>
+  <si>
+    <t>4.76%</t>
+  </si>
+  <si>
+    <t>19.43%</t>
+  </si>
+  <si>
+    <t>高山榕</t>
+  </si>
+  <si>
+    <t>11.90%</t>
+  </si>
+  <si>
+    <t>0.73%</t>
+  </si>
+  <si>
+    <t>54.76%</t>
+  </si>
+  <si>
+    <t>1.19%</t>
+  </si>
+  <si>
+    <t>鹤望兰</t>
+  </si>
+  <si>
+    <t>8.62%</t>
+  </si>
+  <si>
+    <t>HGH4q</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>2.96%</t>
+  </si>
+  <si>
+    <t>美丽异木棉</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>82.57%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>珍珠金合欢</t>
+  </si>
+  <si>
+    <t>73.33%</t>
+  </si>
+  <si>
+    <t>11.03%</t>
+  </si>
+  <si>
+    <t>HGH5q</t>
+  </si>
+  <si>
+    <t>82.45%</t>
+  </si>
+  <si>
+    <t>桂花</t>
+  </si>
+  <si>
+    <t>3.19%</t>
+  </si>
+  <si>
+    <t>幌伞枫</t>
+  </si>
+  <si>
+    <t>31.03%</t>
+  </si>
+  <si>
+    <t>5.59%</t>
+  </si>
+  <si>
+    <t>龙血树</t>
+  </si>
+  <si>
+    <t>16.09%</t>
+  </si>
+  <si>
+    <t>2.44%</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>黄槿</t>
+  </si>
+  <si>
+    <t>0.66%</t>
+  </si>
+  <si>
+    <t>5.75%</t>
+  </si>
+  <si>
+    <t>1.86%</t>
+  </si>
+  <si>
+    <t>海南菜豆树</t>
+  </si>
+  <si>
+    <t>1.42%</t>
+  </si>
+  <si>
+    <t>橡皮榕</t>
+  </si>
+  <si>
+    <t>17.24%</t>
+  </si>
+  <si>
+    <t>1.81%</t>
+  </si>
+  <si>
+    <t>0.12%</t>
+  </si>
+  <si>
+    <t>HGH6q</t>
+  </si>
+  <si>
+    <t>黄栌</t>
+  </si>
+  <si>
+    <t>43.24%</t>
+  </si>
+  <si>
+    <t>10.55%</t>
+  </si>
+  <si>
+    <t>24.32%</t>
+  </si>
+  <si>
+    <t>1.25%</t>
+  </si>
+  <si>
+    <t>13.51%</t>
+  </si>
+  <si>
+    <t>9.45%</t>
+  </si>
+  <si>
+    <t>盆架树</t>
+  </si>
+  <si>
+    <t>16.22%</t>
+  </si>
+  <si>
+    <t>78.57%</t>
+  </si>
+  <si>
+    <t>台湾相思</t>
+  </si>
+  <si>
+    <t>2.70%</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>T1q</t>
+  </si>
+  <si>
+    <t>肉桂</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>15.78%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>30.53%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>0.20%</t>
+  </si>
+  <si>
+    <t>酒瓶椰子</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>33.99%</t>
+  </si>
+  <si>
+    <t>红千层</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
+    <t>19.06%</t>
+  </si>
+  <si>
+    <t>紫薇</t>
+  </si>
+  <si>
+    <t>31.82%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>BY1q</t>
+  </si>
+  <si>
+    <t>杧果</t>
+  </si>
+  <si>
+    <t>5.41%</t>
+  </si>
+  <si>
+    <t>14.05%</t>
+  </si>
+  <si>
+    <t>三角椰子</t>
+  </si>
+  <si>
+    <t>46.50%</t>
+  </si>
+  <si>
+    <t>7.43%</t>
+  </si>
+  <si>
+    <t>5.47%</t>
+  </si>
+  <si>
+    <t>10.81%</t>
+  </si>
+  <si>
+    <t>2.32%</t>
+  </si>
+  <si>
+    <t>南洋杉</t>
+  </si>
+  <si>
+    <t>27.03%</t>
+  </si>
+  <si>
+    <t>17.28%</t>
+  </si>
+  <si>
+    <t>楝树</t>
+  </si>
+  <si>
+    <t>1.73%</t>
+  </si>
+  <si>
+    <t>0.40%</t>
+  </si>
+  <si>
+    <t>苏铁</t>
+  </si>
+  <si>
+    <t>4.83%</t>
+  </si>
+  <si>
+    <t>MZH1q</t>
+  </si>
+  <si>
+    <t>大花紫薇</t>
+  </si>
+  <si>
+    <t>11.54%</t>
+  </si>
+  <si>
+    <t>6.27%</t>
+  </si>
+  <si>
+    <t>小叶榄仁</t>
+  </si>
+  <si>
+    <t>7.69%</t>
+  </si>
+  <si>
+    <t>4.54%</t>
+  </si>
+  <si>
+    <t>19.23%</t>
+  </si>
+  <si>
+    <t>16.00%</t>
+  </si>
+  <si>
+    <t>26.92%</t>
+  </si>
+  <si>
+    <t>52.84%</t>
+  </si>
+  <si>
+    <t>3.22%</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
+    <t>垂枝红千层</t>
+  </si>
+  <si>
+    <t>4.27%</t>
+  </si>
+  <si>
+    <t>林刺葵</t>
+  </si>
+  <si>
+    <t>12.29%</t>
+  </si>
+  <si>
+    <t>YL1q</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>96.95%</t>
+  </si>
+  <si>
+    <t>18.75%</t>
+  </si>
+  <si>
+    <t>2.88%</t>
+  </si>
+  <si>
+    <t>鹅掌柴</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
+    <t>YL2q</t>
+  </si>
+  <si>
+    <t>83.78%</t>
+  </si>
+  <si>
+    <t>98.81%</t>
+  </si>
+  <si>
+    <t>0.15%</t>
+  </si>
+  <si>
+    <t>金合欢</t>
+  </si>
+  <si>
+    <t>0.59%</t>
+  </si>
+  <si>
+    <t>牡荆</t>
+  </si>
+  <si>
+    <t>8.11%</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>CT1q</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>CT2q</t>
+  </si>
+  <si>
+    <t>山矾</t>
+  </si>
+  <si>
+    <t>11.94%</t>
+  </si>
+  <si>
+    <t>1.16%</t>
+  </si>
+  <si>
+    <t>41.79%</t>
+  </si>
+  <si>
+    <t>89.37%</t>
+  </si>
+  <si>
+    <t>藤黄檀</t>
+  </si>
+  <si>
+    <t>2.99%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>17.91%</t>
+  </si>
+  <si>
+    <t>6.99%</t>
+  </si>
+  <si>
+    <t>红锥</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>亮叶猴耳环</t>
+  </si>
+  <si>
+    <t>14.93%</t>
+  </si>
+  <si>
+    <t>1.12%</t>
+  </si>
+  <si>
+    <t>柃木</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>继木</t>
+  </si>
+  <si>
+    <t>4.48%</t>
+  </si>
+  <si>
+    <t>天仙果</t>
+  </si>
+  <si>
+    <t>YL3q</t>
+  </si>
+  <si>
+    <t>樟树</t>
+  </si>
+  <si>
+    <t>68.97%</t>
+  </si>
+  <si>
+    <t>93.63%</t>
+  </si>
+  <si>
+    <t>6.90%</t>
+  </si>
+  <si>
+    <t>0.84%</t>
+  </si>
+  <si>
+    <t>山黄麻</t>
+  </si>
+  <si>
+    <t>0.32%</t>
+  </si>
+  <si>
+    <t>阴香</t>
+  </si>
+  <si>
+    <t>3.49%</t>
+  </si>
+  <si>
+    <t>NL1q</t>
+  </si>
+  <si>
+    <t>71.19%</t>
+  </si>
+  <si>
+    <t>74.27%</t>
+  </si>
+  <si>
+    <t>木麻黄</t>
+  </si>
+  <si>
+    <t>20.34%</t>
+  </si>
+  <si>
+    <t>25.45%</t>
+  </si>
+  <si>
+    <t>3.39%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>石岩枫</t>
+  </si>
+  <si>
+    <t>1.69%</t>
+  </si>
+  <si>
+    <t>NL2q</t>
+  </si>
+  <si>
+    <t>57.69%</t>
+  </si>
+  <si>
+    <t>94.56%</t>
+  </si>
+  <si>
+    <t>23.08%</t>
+  </si>
+  <si>
+    <t>2.02%</t>
+  </si>
+  <si>
+    <t>0.69%</t>
+  </si>
+  <si>
+    <t>1.46%</t>
+  </si>
+  <si>
+    <t>女贞</t>
+  </si>
+  <si>
+    <t>0.57%</t>
+  </si>
+  <si>
+    <t>粗糠柴</t>
+  </si>
+  <si>
+    <t>YL4q</t>
+  </si>
+  <si>
+    <t>2.21%</t>
+  </si>
+  <si>
+    <t>97.41%</t>
+  </si>
+  <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>YL5q</t>
+  </si>
+  <si>
+    <t>65.00%</t>
+  </si>
+  <si>
+    <t>98.33%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>福建胡颓子</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>柞木</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>柑橘</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>YL6q</t>
+  </si>
+  <si>
+    <t>91.18%</t>
+  </si>
+  <si>
+    <t>97.12%</t>
+  </si>
+  <si>
+    <t>8.82%</t>
+  </si>
+  <si>
+    <t>YL7q</t>
+  </si>
+  <si>
+    <t>YL8Mq</t>
+  </si>
+  <si>
+    <t>76.19%</t>
+  </si>
+  <si>
+    <t>88.31%</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>11.63%</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>GW1q</t>
+  </si>
+  <si>
+    <t>28.95%</t>
+  </si>
+  <si>
+    <t>18.90%</t>
+  </si>
+  <si>
+    <t>马尾松</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
+    <t>3.00%</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>1.75%</t>
+  </si>
+  <si>
+    <t>0.28%</t>
+  </si>
+  <si>
+    <t>4.39%</t>
+  </si>
+  <si>
+    <t>桉树</t>
+  </si>
+  <si>
+    <t>21.05%</t>
+  </si>
+  <si>
+    <t>62.45%</t>
+  </si>
+  <si>
+    <t>19.30%</t>
+  </si>
+  <si>
+    <t>3.65%</t>
+  </si>
+  <si>
+    <t>6.14%</t>
+  </si>
+  <si>
+    <t>5.21%</t>
+  </si>
+  <si>
+    <t>0.88%</t>
+  </si>
+  <si>
+    <t>5.13%</t>
+  </si>
+  <si>
+    <t>0.16%</t>
+  </si>
+  <si>
+    <t>GW2q</t>
+  </si>
+  <si>
+    <t>52.63%</t>
+  </si>
+  <si>
+    <t>81.38%</t>
+  </si>
+  <si>
+    <t>3.95%</t>
+  </si>
+  <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>4.47%</t>
+  </si>
+  <si>
+    <t>34.21%</t>
+  </si>
+  <si>
+    <t>13.20%</t>
+  </si>
+  <si>
+    <t>1.32%</t>
+  </si>
+  <si>
+    <t>南烛</t>
+  </si>
+  <si>
+    <t>2.63%</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>A1q</t>
+  </si>
+  <si>
+    <t>67.86%</t>
+  </si>
+  <si>
+    <t>73.51%</t>
+  </si>
+  <si>
+    <t>5.95%</t>
+  </si>
+  <si>
+    <t>3.59%</t>
+  </si>
+  <si>
+    <t>20.24%</t>
+  </si>
+  <si>
+    <t>21.23%</t>
+  </si>
+  <si>
+    <t>1.60%</t>
+  </si>
+  <si>
+    <t>A2q</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>90.82%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>7.17%</t>
+  </si>
+  <si>
+    <t>1.11%</t>
+  </si>
+  <si>
+    <t>5.56%</t>
+  </si>
+  <si>
+    <t>4.44%</t>
+  </si>
+  <si>
+    <t>6.67%</t>
+  </si>
+  <si>
+    <t>0.24%</t>
+  </si>
+  <si>
+    <t>GW3q</t>
+  </si>
+  <si>
+    <t>4.08%</t>
+  </si>
+  <si>
+    <t>5.44%</t>
+  </si>
+  <si>
+    <t>85.71%</t>
+  </si>
+  <si>
+    <t>86.30%</t>
+  </si>
+  <si>
+    <t>车桑子</t>
+  </si>
+  <si>
+    <t>9.86%</t>
+  </si>
+  <si>
+    <t>8.19%</t>
+  </si>
+  <si>
+    <t>桃金娘</t>
+  </si>
+  <si>
+    <t>0.34%</t>
+  </si>
+  <si>
+    <t>GW4q</t>
+  </si>
+  <si>
+    <t>47.37%</t>
+  </si>
+  <si>
+    <t>17.67%</t>
+  </si>
+  <si>
+    <t>41.23%</t>
+  </si>
+  <si>
+    <t>80.61%</t>
+  </si>
+  <si>
+    <t>8.77%</t>
+  </si>
+  <si>
+    <t>1.59%</t>
+  </si>
+  <si>
+    <t>GW5q</t>
+  </si>
+  <si>
+    <t>72.78%</t>
+  </si>
+  <si>
+    <t>80.48%</t>
+  </si>
+  <si>
+    <t>14.20%</t>
+  </si>
+  <si>
+    <t>17.46%</t>
+  </si>
+  <si>
+    <t>厚皮香</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>越橘</t>
+  </si>
+  <si>
+    <t>0.05%</t>
+  </si>
+  <si>
+    <t>野柿</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>NST1q</t>
+  </si>
+  <si>
+    <t>QP1q</t>
+  </si>
+  <si>
+    <t>羽叶金合欢</t>
+  </si>
+  <si>
+    <t>73.02%</t>
+  </si>
+  <si>
+    <t>97.46%</t>
+  </si>
+  <si>
+    <t>22.22%</t>
+  </si>
+  <si>
+    <t>2.12%</t>
+  </si>
+  <si>
+    <t>YL8Pq</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>99.75%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>YL9q</t>
+  </si>
+  <si>
+    <t>67.44%</t>
+  </si>
+  <si>
+    <t>97.30%</t>
+  </si>
+  <si>
+    <t>蚊母树</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>9.30%</t>
+  </si>
+  <si>
+    <t>0.82%</t>
+  </si>
+  <si>
+    <t>马缨丹</t>
+  </si>
+  <si>
+    <t>6.98%</t>
+  </si>
+  <si>
+    <t>箣柊</t>
+  </si>
+  <si>
+    <t>4.65%</t>
+  </si>
+  <si>
+    <t>青灰叶下珠</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>雀梅藤</t>
+  </si>
+  <si>
+    <t>XF1q</t>
+  </si>
+  <si>
+    <t>橄榄</t>
+  </si>
+  <si>
+    <t>12.85%</t>
+  </si>
+  <si>
+    <t>杉木</t>
+  </si>
+  <si>
+    <t>87.50%</t>
+  </si>
+  <si>
+    <t>85.98%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>柿子</t>
+  </si>
+  <si>
+    <t>1.06%</t>
+  </si>
+  <si>
+    <t>XF2q</t>
+  </si>
+  <si>
+    <t>85.07%</t>
+  </si>
+  <si>
+    <t>86.39%</t>
+  </si>
+  <si>
+    <t>细齿叶柃</t>
+  </si>
+  <si>
+    <t>3.44%</t>
+  </si>
+  <si>
+    <t>杜英</t>
+  </si>
+  <si>
+    <t>10.17%</t>
+  </si>
+  <si>
+    <t>XF3q</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>99.87%</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
+    <t>FW1q</t>
+  </si>
+  <si>
+    <t>NSW1q</t>
+  </si>
+  <si>
+    <t>2.14%</t>
+  </si>
+  <si>
+    <t>2.56%</t>
+  </si>
+  <si>
+    <t>0.55%</t>
+  </si>
+  <si>
+    <t>87.18%</t>
+  </si>
+  <si>
+    <t>96.37%</t>
+  </si>
+  <si>
+    <t>0.94%</t>
+  </si>
+  <si>
+    <t>TLS1q</t>
+  </si>
+  <si>
+    <t>89.13%</t>
+  </si>
+  <si>
+    <t>92.66%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>深山含笑</t>
+  </si>
+  <si>
+    <t>8.70%</t>
+  </si>
+  <si>
+    <t>7.25%</t>
+  </si>
+  <si>
+    <t>NST2q</t>
+  </si>
+  <si>
+    <t>89.83%</t>
+  </si>
+  <si>
+    <t>97.84%</t>
+  </si>
+  <si>
+    <t>0.80%</t>
+  </si>
+  <si>
+    <t>白檀</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>枇杷</t>
+  </si>
+  <si>
+    <t>BY1Aq</t>
+  </si>
+  <si>
+    <t>71.60%</t>
+  </si>
+  <si>
+    <t>95.23%</t>
+  </si>
+  <si>
+    <t>龙眼</t>
+  </si>
+  <si>
+    <t>16.05%</t>
+  </si>
+  <si>
+    <t>3.68%</t>
+  </si>
+  <si>
+    <t>紫麻</t>
+  </si>
+  <si>
+    <t>1.23%</t>
+  </si>
+  <si>
+    <t>2.47%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>0.39%</t>
+  </si>
+  <si>
+    <t>早园竹</t>
+  </si>
+  <si>
     <t>0.01%</t>
   </si>
   <si>
-    <t>九里香</t>
-  </si>
-  <si>
-    <t>4.35%</t>
-  </si>
-  <si>
-    <t>0.02%</t>
-  </si>
-  <si>
-    <t>含笑</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>MZ1q</t>
-  </si>
-  <si>
-    <t>侧柏</t>
-  </si>
-  <si>
-    <t>32.00%</t>
-  </si>
-  <si>
-    <t>15.48%</t>
-  </si>
-  <si>
-    <t>朴树</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>0.60%</t>
-  </si>
-  <si>
-    <t>假连翘</t>
-  </si>
-  <si>
-    <t>24.00%</t>
-  </si>
-  <si>
-    <t>2.81%</t>
-  </si>
-  <si>
-    <t>龙柏</t>
-  </si>
-  <si>
-    <t>36.00%</t>
-  </si>
-  <si>
-    <t>80.51%</t>
-  </si>
-  <si>
-    <t>盐肤木</t>
-  </si>
-  <si>
-    <t>HGH1q</t>
-  </si>
-  <si>
-    <t>菩提树</t>
-  </si>
-  <si>
-    <t>14.29%</t>
-  </si>
-  <si>
-    <t>43.52%</t>
-  </si>
-  <si>
-    <t>鸡爪槭</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>秋枫</t>
-  </si>
-  <si>
-    <t>57.14%</t>
-  </si>
-  <si>
-    <t>55.90%</t>
-  </si>
-  <si>
-    <t>HGH2q</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>11.49%</t>
-  </si>
-  <si>
-    <t>黄金串钱柳</t>
-  </si>
-  <si>
-    <t>2.30%</t>
-  </si>
-  <si>
-    <t>0.81%</t>
-  </si>
-  <si>
-    <t>樱花</t>
-  </si>
-  <si>
-    <t>13.79%</t>
-  </si>
-  <si>
-    <t>3.25%</t>
-  </si>
-  <si>
-    <t>澳洲鸭脚木</t>
-  </si>
-  <si>
-    <t>4.60%</t>
-  </si>
-  <si>
-    <t>2.87%</t>
-  </si>
-  <si>
-    <t>鸡冠刺桐</t>
-  </si>
-  <si>
-    <t>9.20%</t>
-  </si>
-  <si>
-    <t>46.61%</t>
-  </si>
-  <si>
-    <t>1.15%</t>
-  </si>
-  <si>
-    <t>27.80%</t>
-  </si>
-  <si>
-    <t>菜豆树</t>
-  </si>
-  <si>
-    <t>65.52%</t>
-  </si>
-  <si>
-    <t>7.17%</t>
-  </si>
-  <si>
-    <t>HGH3q</t>
-  </si>
-  <si>
-    <t>榕树</t>
-  </si>
-  <si>
-    <t>9.52%</t>
-  </si>
-  <si>
-    <t>70.01%</t>
-  </si>
-  <si>
-    <t>杨梅</t>
-  </si>
-  <si>
-    <t>7.14%</t>
-  </si>
-  <si>
-    <t>0.69%</t>
-  </si>
-  <si>
-    <t>天料木</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>19.61%</t>
-  </si>
-  <si>
-    <t>高山榕</t>
-  </si>
-  <si>
-    <t>11.90%</t>
-  </si>
-  <si>
-    <t>0.74%</t>
-  </si>
-  <si>
-    <t>54.76%</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>鹤望兰</t>
-  </si>
-  <si>
-    <t>8.70%</t>
-  </si>
-  <si>
-    <t>HGH4q</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>2.96%</t>
-  </si>
-  <si>
-    <t>美丽异木棉</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>82.57%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>珍珠金合欢</t>
-  </si>
-  <si>
-    <t>73.33%</t>
-  </si>
-  <si>
-    <t>11.03%</t>
-  </si>
-  <si>
-    <t>HGH5q</t>
-  </si>
-  <si>
-    <t>84.22%</t>
-  </si>
-  <si>
-    <t>桂花</t>
-  </si>
-  <si>
-    <t>3.26%</t>
-  </si>
-  <si>
-    <t>幌伞枫</t>
-  </si>
-  <si>
-    <t>31.03%</t>
-  </si>
-  <si>
-    <t>5.66%</t>
-  </si>
-  <si>
-    <t>龙血树</t>
-  </si>
-  <si>
-    <t>16.09%</t>
-  </si>
-  <si>
-    <t>2.49%</t>
-  </si>
-  <si>
-    <t>0.47%</t>
-  </si>
-  <si>
-    <t>黄槿</t>
-  </si>
-  <si>
-    <t>0.05%</t>
-  </si>
-  <si>
-    <t>5.75%</t>
-  </si>
-  <si>
-    <t>1.90%</t>
-  </si>
-  <si>
-    <t>海南菜豆树</t>
-  </si>
-  <si>
-    <t>1.45%</t>
-  </si>
-  <si>
-    <t>橡皮榕</t>
-  </si>
-  <si>
-    <t>17.24%</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>HGH6q</t>
-  </si>
-  <si>
-    <t>黄栌</t>
-  </si>
-  <si>
-    <t>43.24%</t>
-  </si>
-  <si>
-    <t>10.55%</t>
-  </si>
-  <si>
-    <t>24.32%</t>
-  </si>
-  <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>13.51%</t>
-  </si>
-  <si>
-    <t>9.45%</t>
-  </si>
-  <si>
-    <t>盆架树</t>
-  </si>
-  <si>
-    <t>16.22%</t>
-  </si>
-  <si>
-    <t>78.57%</t>
-  </si>
-  <si>
-    <t>台湾相思</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>T1q</t>
-  </si>
-  <si>
-    <t>肉桂</t>
-  </si>
-  <si>
-    <t>18.18%</t>
-  </si>
-  <si>
-    <t>15.78%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
-    <t>30.53%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
-  </si>
-  <si>
-    <t>0.20%</t>
-  </si>
-  <si>
-    <t>酒瓶椰子</t>
-  </si>
-  <si>
-    <t>13.64%</t>
-  </si>
-  <si>
-    <t>33.99%</t>
-  </si>
-  <si>
-    <t>红千层</t>
-  </si>
-  <si>
-    <t>22.73%</t>
-  </si>
-  <si>
-    <t>19.06%</t>
-  </si>
-  <si>
-    <t>紫薇</t>
-  </si>
-  <si>
-    <t>31.82%</t>
-  </si>
-  <si>
-    <t>0.43%</t>
-  </si>
-  <si>
-    <t>BY1q</t>
-  </si>
-  <si>
-    <t>杧果</t>
-  </si>
-  <si>
-    <t>5.41%</t>
-  </si>
-  <si>
-    <t>14.05%</t>
-  </si>
-  <si>
-    <t>三角椰子</t>
-  </si>
-  <si>
-    <t>46.50%</t>
-  </si>
-  <si>
-    <t>7.43%</t>
-  </si>
-  <si>
-    <t>5.47%</t>
-  </si>
-  <si>
-    <t>10.81%</t>
-  </si>
-  <si>
-    <t>2.32%</t>
-  </si>
-  <si>
-    <t>南洋杉</t>
-  </si>
-  <si>
-    <t>27.03%</t>
-  </si>
-  <si>
-    <t>17.28%</t>
-  </si>
-  <si>
-    <t>楝树</t>
-  </si>
-  <si>
-    <t>1.73%</t>
-  </si>
-  <si>
-    <t>0.40%</t>
-  </si>
-  <si>
-    <t>苏铁</t>
-  </si>
-  <si>
-    <t>4.83%</t>
-  </si>
-  <si>
-    <t>MZH1q</t>
-  </si>
-  <si>
-    <t>大花紫薇</t>
-  </si>
-  <si>
-    <t>11.54%</t>
-  </si>
-  <si>
-    <t>6.27%</t>
-  </si>
-  <si>
-    <t>小叶榄仁</t>
-  </si>
-  <si>
-    <t>7.69%</t>
-  </si>
-  <si>
-    <t>4.54%</t>
-  </si>
-  <si>
-    <t>19.23%</t>
-  </si>
-  <si>
-    <t>16.00%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>52.84%</t>
-  </si>
-  <si>
-    <t>3.22%</t>
-  </si>
-  <si>
-    <t>3.85%</t>
-  </si>
-  <si>
-    <t>垂枝红千层</t>
-  </si>
-  <si>
-    <t>4.27%</t>
-  </si>
-  <si>
-    <t>林刺葵</t>
-  </si>
-  <si>
-    <t>12.29%</t>
-  </si>
-  <si>
-    <t>YL1q</t>
-  </si>
-  <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>96.95%</t>
-  </si>
-  <si>
-    <t>18.75%</t>
-  </si>
-  <si>
-    <t>2.88%</t>
-  </si>
-  <si>
-    <t>鹅掌柴</t>
-  </si>
-  <si>
-    <t>6.25%</t>
-  </si>
-  <si>
-    <t>YL2q</t>
-  </si>
-  <si>
-    <t>83.78%</t>
-  </si>
-  <si>
-    <t>99.18%</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>金合欢</t>
-  </si>
-  <si>
-    <t>0.59%</t>
-  </si>
-  <si>
-    <t>牡荆</t>
-  </si>
-  <si>
-    <t>8.11%</t>
-  </si>
-  <si>
-    <t>0.15%</t>
-  </si>
-  <si>
-    <t>CT1q</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>CT2q</t>
-  </si>
-  <si>
-    <t>山矾</t>
-  </si>
-  <si>
-    <t>11.94%</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>41.79%</t>
-  </si>
-  <si>
-    <t>89.82%</t>
-  </si>
-  <si>
-    <t>藤黄檀</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>17.91%</t>
-  </si>
-  <si>
-    <t>7.02%</t>
-  </si>
-  <si>
-    <t>红锥</t>
-  </si>
-  <si>
-    <t>1.49%</t>
-  </si>
-  <si>
-    <t>亮叶猴耳环</t>
-  </si>
-  <si>
-    <t>14.93%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>柃木</t>
-  </si>
-  <si>
-    <t>继木</t>
-  </si>
-  <si>
-    <t>4.48%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>天仙果</t>
-  </si>
-  <si>
-    <t>YL3q</t>
-  </si>
-  <si>
-    <t>樟树</t>
-  </si>
-  <si>
-    <t>1.12%</t>
-  </si>
-  <si>
-    <t>68.97%</t>
-  </si>
-  <si>
-    <t>93.63%</t>
-  </si>
-  <si>
-    <t>6.90%</t>
-  </si>
-  <si>
-    <t>0.84%</t>
-  </si>
-  <si>
-    <t>山黄麻</t>
-  </si>
-  <si>
-    <t>0.32%</t>
-  </si>
-  <si>
-    <t>阴香</t>
-  </si>
-  <si>
-    <t>3.49%</t>
-  </si>
-  <si>
-    <t>NL1q</t>
-  </si>
-  <si>
-    <t>71.19%</t>
-  </si>
-  <si>
-    <t>74.27%</t>
-  </si>
-  <si>
-    <t>木麻黄</t>
-  </si>
-  <si>
-    <t>20.34%</t>
-  </si>
-  <si>
-    <t>25.45%</t>
-  </si>
-  <si>
-    <t>3.39%</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>0.14%</t>
-  </si>
-  <si>
-    <t>石岩枫</t>
-  </si>
-  <si>
-    <t>1.69%</t>
-  </si>
-  <si>
-    <t>NL2q</t>
-  </si>
-  <si>
-    <t>57.69%</t>
-  </si>
-  <si>
-    <t>95.22%</t>
-  </si>
-  <si>
-    <t>23.08%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>0.70%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>女贞</t>
-  </si>
-  <si>
-    <t>粗糠柴</t>
-  </si>
-  <si>
-    <t>YL4q</t>
-  </si>
-  <si>
-    <t>2.21%</t>
-  </si>
-  <si>
-    <t>97.41%</t>
-  </si>
-  <si>
-    <t>0.37%</t>
-  </si>
-  <si>
-    <t>YL5q</t>
-  </si>
-  <si>
-    <t>65.00%</t>
-  </si>
-  <si>
-    <t>98.33%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>福建胡颓子</t>
-  </si>
-  <si>
-    <t>柞木</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-  <si>
-    <t>0.95%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>柑橘</t>
-  </si>
-  <si>
-    <t>0.10%</t>
-  </si>
-  <si>
-    <t>YL6q</t>
-  </si>
-  <si>
-    <t>91.18%</t>
-  </si>
-  <si>
-    <t>97.12%</t>
-  </si>
-  <si>
-    <t>8.82%</t>
-  </si>
-  <si>
-    <t>YL7q</t>
-  </si>
-  <si>
-    <t>YL8Mq</t>
-  </si>
-  <si>
-    <t>76.19%</t>
-  </si>
-  <si>
-    <t>88.31%</t>
-  </si>
-  <si>
-    <t>19.05%</t>
-  </si>
-  <si>
-    <t>11.63%</t>
-  </si>
-  <si>
-    <t>0.06%</t>
-  </si>
-  <si>
-    <t>GW1q</t>
-  </si>
-  <si>
-    <t>28.95%</t>
-  </si>
-  <si>
-    <t>18.90%</t>
-  </si>
-  <si>
-    <t>马尾松</t>
-  </si>
-  <si>
-    <t>5.26%</t>
-  </si>
-  <si>
-    <t>3.00%</t>
-  </si>
-  <si>
-    <t>10.53%</t>
-  </si>
-  <si>
-    <t>0.77%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>0.28%</t>
-  </si>
-  <si>
-    <t>4.39%</t>
-  </si>
-  <si>
-    <t>桉树</t>
-  </si>
-  <si>
-    <t>21.05%</t>
-  </si>
-  <si>
-    <t>62.45%</t>
-  </si>
-  <si>
-    <t>19.30%</t>
-  </si>
-  <si>
-    <t>3.65%</t>
-  </si>
-  <si>
-    <t>6.14%</t>
-  </si>
-  <si>
-    <t>5.21%</t>
-  </si>
-  <si>
-    <t>0.88%</t>
-  </si>
-  <si>
-    <t>5.13%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>GW2q</t>
-  </si>
-  <si>
-    <t>52.63%</t>
-  </si>
-  <si>
-    <t>81.38%</t>
-  </si>
-  <si>
-    <t>3.95%</t>
-  </si>
-  <si>
-    <t>0.41%</t>
-  </si>
-  <si>
-    <t>4.47%</t>
-  </si>
-  <si>
-    <t>34.21%</t>
-  </si>
-  <si>
-    <t>13.20%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>南烛</t>
-  </si>
-  <si>
-    <t>2.63%</t>
-  </si>
-  <si>
-    <t>0.18%</t>
-  </si>
-  <si>
-    <t>0.30%</t>
-  </si>
-  <si>
-    <t>A1q</t>
-  </si>
-  <si>
-    <t>67.86%</t>
-  </si>
-  <si>
-    <t>73.51%</t>
-  </si>
-  <si>
-    <t>5.95%</t>
-  </si>
-  <si>
-    <t>3.59%</t>
-  </si>
-  <si>
-    <t>20.24%</t>
-  </si>
-  <si>
-    <t>21.23%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>A2q</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>90.82%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
-  </si>
-  <si>
-    <t>5.56%</t>
-  </si>
-  <si>
-    <t>4.44%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>0.24%</t>
-  </si>
-  <si>
-    <t>GW3q</t>
-  </si>
-  <si>
-    <t>4.08%</t>
-  </si>
-  <si>
-    <t>6.36%</t>
-  </si>
-  <si>
-    <t>85.71%</t>
-  </si>
-  <si>
-    <t>84.49%</t>
-  </si>
-  <si>
-    <t>车桑子</t>
-  </si>
-  <si>
-    <t>9.86%</t>
-  </si>
-  <si>
-    <t>9.06%</t>
-  </si>
-  <si>
-    <t>桃金娘</t>
-  </si>
-  <si>
-    <t>0.34%</t>
-  </si>
-  <si>
-    <t>0.09%</t>
-  </si>
-  <si>
-    <t>GW4q</t>
-  </si>
-  <si>
-    <t>47.37%</t>
-  </si>
-  <si>
-    <t>17.67%</t>
-  </si>
-  <si>
-    <t>41.23%</t>
-  </si>
-  <si>
-    <t>80.61%</t>
-  </si>
-  <si>
-    <t>8.77%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>GW5q</t>
-  </si>
-  <si>
-    <t>72.78%</t>
-  </si>
-  <si>
-    <t>67.50%</t>
-  </si>
-  <si>
-    <t>14.20%</t>
-  </si>
-  <si>
-    <t>29.33%</t>
-  </si>
-  <si>
-    <t>厚皮香</t>
-  </si>
-  <si>
-    <t>2.23%</t>
-  </si>
-  <si>
-    <t>越橘</t>
-  </si>
-  <si>
-    <t>野柿</t>
-  </si>
-  <si>
-    <t>0.19%</t>
-  </si>
-  <si>
-    <t>NST1q</t>
-  </si>
-  <si>
-    <t>QP1q</t>
-  </si>
-  <si>
-    <t>羽叶金合欢</t>
-  </si>
-  <si>
-    <t>73.02%</t>
-  </si>
-  <si>
-    <t>97.46%</t>
-  </si>
-  <si>
-    <t>22.22%</t>
-  </si>
-  <si>
-    <t>2.12%</t>
-  </si>
-  <si>
-    <t>YL8Pq</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>99.75%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>YL9q</t>
-  </si>
-  <si>
-    <t>67.44%</t>
-  </si>
-  <si>
-    <t>97.30%</t>
-  </si>
-  <si>
-    <t>蚊母树</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>9.30%</t>
-  </si>
-  <si>
-    <t>0.82%</t>
-  </si>
-  <si>
-    <t>马缨丹</t>
-  </si>
-  <si>
-    <t>6.98%</t>
-  </si>
-  <si>
-    <t>箣柊</t>
-  </si>
-  <si>
-    <t>4.65%</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>青灰叶下珠</t>
-  </si>
-  <si>
-    <t>雀梅藤</t>
-  </si>
-  <si>
-    <t>XF1q</t>
-  </si>
-  <si>
-    <t>橄榄</t>
-  </si>
-  <si>
-    <t>12.85%</t>
-  </si>
-  <si>
-    <t>杉木</t>
-  </si>
-  <si>
-    <t>87.50%</t>
-  </si>
-  <si>
-    <t>85.98%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>柿子</t>
-  </si>
-  <si>
-    <t>1.06%</t>
-  </si>
-  <si>
-    <t>XF2q</t>
-  </si>
-  <si>
-    <t>85.07%</t>
-  </si>
-  <si>
-    <t>85.38%</t>
-  </si>
-  <si>
-    <t>细齿叶柃</t>
-  </si>
-  <si>
-    <t>2.10%</t>
-  </si>
-  <si>
-    <t>杜英</t>
-  </si>
-  <si>
-    <t>12.53%</t>
-  </si>
-  <si>
-    <t>XF3q</t>
-  </si>
-  <si>
-    <t>96.77%</t>
-  </si>
-  <si>
-    <t>99.87%</t>
-  </si>
-  <si>
-    <t>3.23%</t>
-  </si>
-  <si>
-    <t>FW1q</t>
-  </si>
-  <si>
-    <t>NSW1q</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>2.56%</t>
-  </si>
-  <si>
-    <t>0.55%</t>
-  </si>
-  <si>
-    <t>87.18%</t>
-  </si>
-  <si>
-    <t>96.37%</t>
-  </si>
-  <si>
-    <t>0.94%</t>
-  </si>
-  <si>
-    <t>TLS1q</t>
-  </si>
-  <si>
-    <t>89.13%</t>
-  </si>
-  <si>
-    <t>92.66%</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>深山含笑</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>NST2q</t>
-  </si>
-  <si>
-    <t>89.83%</t>
-  </si>
-  <si>
-    <t>97.84%</t>
-  </si>
-  <si>
-    <t>0.80%</t>
-  </si>
-  <si>
-    <t>白檀</t>
-  </si>
-  <si>
-    <t>0.57%</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>枇杷</t>
-  </si>
-  <si>
-    <t>BY1Aq</t>
-  </si>
-  <si>
-    <t>71.60%</t>
-  </si>
-  <si>
-    <t>95.23%</t>
-  </si>
-  <si>
-    <t>龙眼</t>
-  </si>
-  <si>
-    <t>16.05%</t>
-  </si>
-  <si>
-    <t>3.68%</t>
-  </si>
-  <si>
-    <t>紫麻</t>
-  </si>
-  <si>
-    <t>1.23%</t>
-  </si>
-  <si>
-    <t>2.47%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>0.39%</t>
-  </si>
-  <si>
-    <t>早园竹</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
     <t>MYS1q</t>
   </si>
   <si>
@@ -1330,25 +1336,19 @@
     <t>87.79%</t>
   </si>
   <si>
-    <t>94.43%</t>
+    <t>97.04%</t>
   </si>
   <si>
     <t>6.11%</t>
   </si>
   <si>
-    <t>3.99%</t>
+    <t>2.15%</t>
   </si>
   <si>
     <t>4.58%</t>
   </si>
   <si>
-    <t>1.29%</t>
-  </si>
-  <si>
     <t>0.76%</t>
-  </si>
-  <si>
-    <t>0.12%</t>
   </si>
   <si>
     <t>紫弹树</t>
@@ -2652,7 +2652,7 @@
         <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -2674,13 +2674,13 @@
         <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
         <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,52 +2688,52 @@
         <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
         <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
         <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
         <v>120</v>
@@ -2741,21 +2741,21 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
         <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -2764,116 +2764,116 @@
         <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
         <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
         <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
         <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -2881,77 +2881,77 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
         <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B88" t="s">
         <v>118</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
@@ -2979,10 +2979,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
         <v>46</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B91" t="s">
         <v>219</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B92" t="s">
         <v>221</v>
@@ -3066,13 +3066,13 @@
         <v>223</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
         <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,10 +3080,10 @@
         <v>223</v>
       </c>
       <c r="B97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" t="s">
         <v>232</v>
-      </c>
-      <c r="C97" t="s">
-        <v>233</v>
       </c>
       <c r="D97" t="s">
         <v>230</v>
@@ -3091,86 +3091,86 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
         <v>118</v>
       </c>
       <c r="C98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
         <v>235</v>
-      </c>
-      <c r="D98" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B99" t="s">
         <v>19</v>
       </c>
       <c r="C99" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" t="s">
         <v>237</v>
-      </c>
-      <c r="D99" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" t="s">
         <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B101" t="s">
         <v>221</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
         <v>161</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B103" t="s">
         <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>243</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
         <v>64</v>
@@ -3254,7 +3254,7 @@
         <v>250</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,13 +3262,13 @@
         <v>247</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,7 +3282,7 @@
         <v>250</v>
       </c>
       <c r="D111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,13 +3290,13 @@
         <v>247</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C112" t="s">
         <v>250</v>
       </c>
       <c r="D112" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3304,88 +3304,88 @@
         <v>247</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
         <v>250</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B114" t="s">
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B115" t="s">
         <v>151</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D115" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B117" t="s">
         <v>226</v>
       </c>
       <c r="C117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
@@ -3394,74 +3394,74 @@
         <v>67</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
         <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C123" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D124" t="s">
         <v>137</v>
@@ -3469,69 +3469,69 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D125" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D126" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D127" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D129" t="s">
         <v>251</v>
@@ -3539,83 +3539,83 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B131" t="s">
         <v>118</v>
       </c>
       <c r="C131" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B133" t="s">
         <v>151</v>
       </c>
       <c r="C133" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
@@ -3623,77 +3623,77 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D136" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D137" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D138" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B139" t="s">
         <v>118</v>
       </c>
       <c r="C139" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D139" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B140" t="s">
         <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D140" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B141" t="s">
         <v>151</v>
@@ -3702,18 +3702,18 @@
         <v>67</v>
       </c>
       <c r="D141" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B142" t="s">
         <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>312</v>
+        <v>73</v>
       </c>
       <c r="D142" t="s">
         <v>230</v>
@@ -3724,7 +3724,7 @@
         <v>313</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
         <v>314</v>
@@ -3744,7 +3744,7 @@
         <v>316</v>
       </c>
       <c r="D144" t="s">
-        <v>58</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,7 +3755,7 @@
         <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -3769,10 +3769,10 @@
         <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,10 +3783,10 @@
         <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D147" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,66 +3797,66 @@
         <v>118</v>
       </c>
       <c r="C148" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B149" t="s">
         <v>118</v>
       </c>
       <c r="C149" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D149" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C150" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D150" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D151" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B152" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C152" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>333</v>
       </c>
       <c r="B154" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C154" t="s">
         <v>336</v>
@@ -3895,7 +3895,7 @@
         <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D155" t="s">
         <v>230</v>
@@ -3906,7 +3906,7 @@
         <v>333</v>
       </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
         <v>338</v>
@@ -3920,10 +3920,10 @@
         <v>333</v>
       </c>
       <c r="B157" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D157" t="s">
         <v>230</v>
@@ -3934,7 +3934,7 @@
         <v>340</v>
       </c>
       <c r="B158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C158" t="s">
         <v>341</v>
@@ -3962,13 +3962,13 @@
         <v>340</v>
       </c>
       <c r="B160" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C160" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D160" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,10 +3979,10 @@
         <v>345</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D161" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,13 +3990,13 @@
         <v>340</v>
       </c>
       <c r="B162" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C162" t="s">
         <v>161</v>
       </c>
       <c r="D162" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,13 +4004,13 @@
         <v>340</v>
       </c>
       <c r="B163" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C163" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D163" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4018,13 +4018,13 @@
         <v>340</v>
       </c>
       <c r="B164" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D164" t="s">
-        <v>349</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4032,74 +4032,74 @@
         <v>340</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C165" t="s">
         <v>78</v>
       </c>
       <c r="D165" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B167" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C167" t="s">
         <v>339</v>
       </c>
       <c r="D167" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C168" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C169" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D169" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
@@ -4108,12 +4108,12 @@
         <v>339</v>
       </c>
       <c r="D170" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B171" t="s">
         <v>151</v>
@@ -4127,38 +4127,38 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B172" t="s">
         <v>19</v>
       </c>
       <c r="C172" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D172" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B173" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C173" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D173" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B174" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C174" t="s">
         <v>250</v>
@@ -4169,41 +4169,41 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B175" t="s">
         <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D175" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B176" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C176" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D176" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D177" t="s">
         <v>6</v>
@@ -4211,27 +4211,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B178" t="s">
         <v>252</v>
       </c>
       <c r="C178" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D178" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B179" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C179" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D179" t="s">
         <v>137</v>
@@ -4239,97 +4239,97 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D180" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B181" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C181" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D181" t="s">
-        <v>374</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B182" t="s">
         <v>375</v>
       </c>
       <c r="C182" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D182" t="s">
-        <v>105</v>
+        <v>376</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B183" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C183" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D183" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B184" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C184" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D184" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B185" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C185" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B186" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C186" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -4337,13 +4337,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B187" t="s">
         <v>221</v>
       </c>
       <c r="C187" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D187" t="s">
         <v>230</v>
@@ -4351,279 +4351,279 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B188" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" t="s">
         <v>384</v>
       </c>
-      <c r="C188" t="s">
-        <v>383</v>
-      </c>
       <c r="D188" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D189" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B190" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C190" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D190" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B191" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C191" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D191" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B192" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C192" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D192" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B193" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C193" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D193" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B194" t="s">
         <v>118</v>
       </c>
       <c r="C194" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D194" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C195" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D195" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C196" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D196" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B197" t="s">
         <v>118</v>
       </c>
       <c r="C197" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D197" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B198" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C198" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D198" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B199" t="s">
         <v>118</v>
       </c>
       <c r="C199" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D199" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B200" t="s">
         <v>19</v>
       </c>
       <c r="C200" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D200" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C201" t="s">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="D201" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B202" t="s">
         <v>226</v>
       </c>
       <c r="C202" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D202" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B203" t="s">
         <v>118</v>
       </c>
       <c r="C203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D203" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B204" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C204" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D204" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B205" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C205" t="s">
         <v>229</v>
       </c>
       <c r="D205" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B206" t="s">
         <v>19</v>
       </c>
       <c r="C206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D206" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B207" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C207" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D207" t="s">
         <v>128</v>
@@ -4631,41 +4631,41 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C208" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D208" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B209" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C209" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D209" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B210" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C210" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D210" t="s">
         <v>251</v>
@@ -4673,212 +4673,212 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B212" t="s">
         <v>118</v>
       </c>
       <c r="C212" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D212" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C213" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D213" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B214" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C214" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D214" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B215" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C215" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>433</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B216" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D216" t="s">
-        <v>431</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B217" t="s">
         <v>118</v>
       </c>
       <c r="C217" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D217" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B218" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C218" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D218" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B219" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C219" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D219" t="s">
-        <v>98</v>
+        <v>349</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C220" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D220" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B221" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C221" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D221" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B222" t="s">
         <v>219</v>
       </c>
       <c r="C222" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D222" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B223" t="s">
         <v>28</v>
       </c>
       <c r="C223" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D223" t="s">
-        <v>443</v>
+        <v>98</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B224" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C224" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D224" t="s">
-        <v>445</v>
+        <v>270</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B225" t="s">
         <v>446</v>
       </c>
       <c r="C225" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D225" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
